--- a/website_content_creation/authors/Sam_Woodman/Author_form.xlsx
+++ b/website_content_creation/authors/Sam_Woodman/Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Sam_Woodman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{FE2D311E-6021-47B7-8536-F189B067E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66DEA383-EC28-40AE-9CF0-A16DFE5B6FE5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{FE2D311E-6021-47B7-8536-F189B067E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B2F6235-62DA-4F55-84A2-B47ED6DBD017}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E5215193-B56A-40CD-9DCE-CDBAF80B6F60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5215193-B56A-40CD-9DCE-CDBAF80B6F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Author_form(Sheet1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Watershed Geoinformatics Specialist</t>
+  </si>
+  <si>
+    <t>Natural Resources Canada</t>
+  </si>
+  <si>
+    <t>https://natural-resources.canada.ca/</t>
   </si>
 </sst>
 </file>
@@ -1040,27 +1046,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA415C-CB8F-416D-BDCC-0B069A57C280}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="141.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="141.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1079,12 +1085,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1167,17 +1173,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1210,12 +1216,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1231,32 +1237,40 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>

--- a/website_content_creation/authors/Sam_Woodman/Author_form.xlsx
+++ b/website_content_creation/authors/Sam_Woodman/Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Sam_Woodman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{FE2D311E-6021-47B7-8536-F189B067E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B2F6235-62DA-4F55-84A2-B47ED6DBD017}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{FE2D311E-6021-47B7-8536-F189B067E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E92EA075-555B-44C6-8C67-8C1E9B5D1E99}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E5215193-B56A-40CD-9DCE-CDBAF80B6F60}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11244" xr2:uid="{E5215193-B56A-40CD-9DCE-CDBAF80B6F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Author_form(Sheet1)" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>LinkedIN</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/samuel-woodman-78692b207</t>
-  </si>
-  <si>
     <t>Google Scholar</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>https://natural-resources.canada.ca/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samuel-woodman-78692b207</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA415C-CB8F-416D-BDCC-0B069A57C280}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1110,96 +1110,96 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -1218,66 +1218,67 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" xr:uid="{BF8F2461-1DC8-4B90-B7E3-9700FCB40AC9}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{A1B44441-F3A7-469A-A509-9DA814A4078D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
